--- a/src/main/resources/excel/2 - A1.xlsx
+++ b/src/main/resources/excel/2 - A1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="1140">
   <si>
     <t xml:space="preserve">Sweep</t>
   </si>
@@ -2505,12 +2505,6 @@
   </si>
   <si>
     <t xml:space="preserve">hoʊld ðə ˈpaʊər ˈbʌtən tu ʃʌt ɪt ɔf.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arreglar una bicicleta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arreglar ˈunə bicicleta</t>
   </si>
   <si>
     <t xml:space="preserve">Tighten the chain and align the wheels.</t>
@@ -6562,10 +6556,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A78" activeCellId="0" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7646,29 +7640,29 @@
         <v>827</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>6</v>
+        <v>829</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>833</v>
@@ -7685,10 +7679,10 @@
         <v>835</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>6</v>
@@ -7696,13 +7690,13 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>6</v>
@@ -7710,13 +7704,13 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>6</v>
@@ -7724,13 +7718,13 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>6</v>
@@ -7738,13 +7732,13 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>6</v>
@@ -7752,13 +7746,13 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>6</v>
@@ -7766,13 +7760,13 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>6</v>
@@ -7780,13 +7774,13 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>6</v>
@@ -7794,13 +7788,13 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>6</v>
@@ -7808,13 +7802,13 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>6</v>
@@ -7822,13 +7816,13 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>6</v>
@@ -7836,13 +7830,13 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>6</v>
@@ -7850,13 +7844,13 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>6</v>
@@ -7864,7 +7858,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>874</v>
@@ -7881,10 +7875,10 @@
         <v>876</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>6</v>
@@ -7892,13 +7886,13 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>6</v>
@@ -7906,29 +7900,15 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="F98" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7963,24 +7943,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>892</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -7988,13 +7968,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>895</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -8002,13 +7982,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>896</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>898</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
@@ -8016,13 +7996,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
@@ -8030,13 +8010,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>902</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>904</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
@@ -8044,13 +8024,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>907</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>6</v>
@@ -8058,13 +8038,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>909</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
@@ -8072,13 +8052,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>913</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>6</v>
@@ -8086,13 +8066,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>916</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
@@ -8100,13 +8080,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>919</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>6</v>
@@ -8114,13 +8094,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>922</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>6</v>
@@ -8128,13 +8108,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>924</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>925</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>6</v>
@@ -8142,24 +8122,24 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>926</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>931</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>6</v>
@@ -8167,13 +8147,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>934</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>6</v>
@@ -8181,13 +8161,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>937</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>6</v>
@@ -8195,13 +8175,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>938</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>939</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>940</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -8209,13 +8189,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>943</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>6</v>
@@ -8223,13 +8203,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>946</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>6</v>
@@ -8237,13 +8217,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>949</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>6</v>
@@ -8251,13 +8231,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>950</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>952</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>6</v>
@@ -8265,13 +8245,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>955</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>6</v>
@@ -8279,13 +8259,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>956</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>958</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>6</v>
@@ -8293,13 +8273,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>961</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>6</v>
@@ -8307,13 +8287,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>964</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>6</v>
@@ -8321,13 +8301,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>967</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>6</v>
@@ -8364,25 +8344,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>969</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>970</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>971</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>973</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -8390,13 +8370,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>974</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>975</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>976</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>6</v>
@@ -8404,13 +8384,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>977</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>979</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>6</v>
@@ -8418,13 +8398,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>980</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>982</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
@@ -8432,13 +8412,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>985</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>6</v>
@@ -8446,13 +8426,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>988</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>6</v>
@@ -8460,13 +8440,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>991</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
@@ -8474,13 +8454,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>992</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>994</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>6</v>
@@ -8488,13 +8468,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>997</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>6</v>
@@ -8502,13 +8482,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>998</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1000</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>6</v>
@@ -8516,13 +8496,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1003</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>6</v>
@@ -8530,13 +8510,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1006</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>6</v>
@@ -8544,13 +8524,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>1009</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>6</v>
@@ -8558,13 +8538,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1012</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>6</v>
@@ -8572,13 +8552,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1015</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>6</v>
@@ -8586,13 +8566,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>1016</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1018</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>6</v>
@@ -8600,13 +8580,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1021</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>6</v>
@@ -8614,13 +8594,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>1024</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>6</v>
@@ -8628,13 +8608,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>1025</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1027</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>6</v>
@@ -8642,13 +8622,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1030</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>6</v>
@@ -8656,13 +8636,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1033</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>6</v>
@@ -8670,13 +8650,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>1034</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1036</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>6</v>
@@ -8684,13 +8664,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1039</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>6</v>
@@ -8698,13 +8678,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>1040</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>1042</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>6</v>
@@ -8712,13 +8692,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1045</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>6</v>
@@ -8726,25 +8706,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>1046</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1048</v>
       </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1051</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>6</v>
@@ -8752,13 +8732,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>1054</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>6</v>
@@ -8766,25 +8746,25 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>1057</v>
       </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>1060</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>6</v>
@@ -8792,13 +8772,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>1063</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>6</v>
@@ -8806,25 +8786,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>1066</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>1069</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>6</v>
@@ -8832,25 +8812,25 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>1072</v>
       </c>
       <c r="F35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>1073</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1075</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>6</v>
@@ -8858,25 +8838,25 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>1076</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>1078</v>
       </c>
       <c r="F37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>1079</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>1081</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>6</v>
@@ -8884,25 +8864,25 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>1084</v>
       </c>
       <c r="F39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>1085</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1087</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>6</v>
@@ -8910,25 +8890,25 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>1090</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1093</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>6</v>
@@ -8936,25 +8916,25 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>1096</v>
       </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>1099</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>6</v>
@@ -8962,25 +8942,25 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>1100</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>1102</v>
       </c>
       <c r="F45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>1103</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>1105</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>6</v>
@@ -8988,13 +8968,13 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>1108</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>6</v>
@@ -9002,13 +8982,13 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1111</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>6</v>
@@ -9016,13 +8996,13 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>1114</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>6</v>
@@ -9030,13 +9010,13 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>1117</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>6</v>
@@ -9044,13 +9024,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>1120</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>6</v>
@@ -9058,13 +9038,13 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>1123</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>6</v>
@@ -9072,13 +9052,13 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1125</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>1126</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>6</v>
@@ -9086,13 +9066,13 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>1129</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>6</v>
@@ -9100,13 +9080,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>1130</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>1132</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>6</v>
@@ -9114,13 +9094,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>1133</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1135</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>6</v>
@@ -9128,13 +9108,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>1138</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>6</v>
@@ -9142,13 +9122,13 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>1141</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>6</v>
